--- a/data/marshall-law-tekken-8-frame-data.xlsx
+++ b/data/marshall-law-tekken-8-frame-data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,15 +492,11 @@
       <c r="D2" t="n">
         <v>10</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -522,15 +518,11 @@
       <c r="D3" t="n">
         <v>18</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="E3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-6</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -556,15 +548,11 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>+41 (-17)</t>
-        </is>
+      <c r="E4" t="n">
+        <v>12</v>
+      </c>
+      <c r="F4" t="n">
+        <v>41</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
@@ -590,15 +578,11 @@
       <c r="D5" t="n">
         <v>17</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -620,15 +604,11 @@
       <c r="D6" t="n">
         <v>16</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>+12 (+5)</t>
-        </is>
+      <c r="E6" t="n">
+        <v>13</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -658,15 +638,11 @@
       <c r="D7" t="n">
         <v>12</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -696,15 +672,11 @@
       <c r="D8" t="n">
         <v>20</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -734,15 +706,11 @@
       <c r="D9" t="n">
         <v>19</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>+5 (-4)</t>
-        </is>
+      <c r="E9" t="n">
+        <v>13</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
@@ -768,15 +736,11 @@
       <c r="D10" t="n">
         <v>20</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -806,15 +770,11 @@
       <c r="D11" t="n">
         <v>15</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>13</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
@@ -856,15 +816,11 @@
       <c r="D13" t="n">
         <v>12</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -902,15 +858,11 @@
       <c r="D15" t="n">
         <v>14</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>+50</t>
-        </is>
+      <c r="E15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>50</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
@@ -936,15 +888,11 @@
       <c r="D16" t="n">
         <v>19</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E16" t="n">
+        <v>13</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-1</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
@@ -970,15 +918,11 @@
       <c r="D17" t="n">
         <v>15</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>+31 (+21)</t>
-        </is>
+      <c r="E17" t="n">
+        <v>12</v>
+      </c>
+      <c r="F17" t="n">
+        <v>31</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -1000,15 +944,11 @@
       <c r="D18" t="n">
         <v>12</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
@@ -1034,15 +974,11 @@
       <c r="D19" t="n">
         <v>10</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -1064,15 +1000,11 @@
       <c r="D20" t="n">
         <v>20</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E20" t="n">
+        <v>8</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
@@ -1098,15 +1030,11 @@
       <c r="D21" t="n">
         <v>19</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>+5 (-4)</t>
-        </is>
+      <c r="E21" t="n">
+        <v>13</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
@@ -1132,15 +1060,11 @@
       <c r="D22" t="n">
         <v>13</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E22" t="n">
+        <v>9</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1170,15 +1094,11 @@
       <c r="D23" t="n">
         <v>16</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
@@ -1221,10 +1141,8 @@
         <v>12</v>
       </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="F25" t="n">
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
@@ -1250,15 +1168,11 @@
       <c r="D26" t="n">
         <v>17</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
@@ -1284,15 +1198,11 @@
       <c r="D27" t="n">
         <v>23</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E27" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
@@ -1318,15 +1228,11 @@
       <c r="D28" t="n">
         <v>20</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
+      <c r="E28" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>20</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1356,15 +1262,11 @@
       <c r="D29" t="n">
         <v>12</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E29" t="n">
+        <v>9</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -1386,15 +1288,11 @@
       <c r="D30" t="n">
         <v>27</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E30" t="n">
+        <v>14</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-3</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1424,15 +1322,11 @@
       <c r="D31" t="n">
         <v>14</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E31" t="n">
+        <v>13</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
@@ -1454,15 +1348,11 @@
       <c r="D32" t="n">
         <v>22</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>+19 (+10)</t>
-        </is>
+      <c r="E32" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>19</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
@@ -1488,15 +1378,11 @@
       <c r="D33" t="n">
         <v>30</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>+31d(-27)</t>
-        </is>
+      <c r="E33" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F33" t="n">
+        <v>31</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
@@ -1522,15 +1408,11 @@
       <c r="D34" t="n">
         <v>13</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E34" t="n">
+        <v>9</v>
+      </c>
+      <c r="F34" t="n">
+        <v>7</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -1552,15 +1434,11 @@
       <c r="D35" t="n">
         <v>18</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E35" t="n">
+        <v>8</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1590,15 +1468,11 @@
       <c r="D36" t="n">
         <v>20</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E36" t="n">
+        <v>6</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-1</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1628,15 +1502,11 @@
       <c r="D37" t="n">
         <v>33</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>+30 (+13)</t>
-        </is>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>30</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
@@ -1662,15 +1532,11 @@
       <c r="D38" t="n">
         <v>14</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E38" t="n">
+        <v>9</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
@@ -1692,15 +1558,11 @@
       <c r="D39" t="n">
         <v>20</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>+31 (+23)</t>
-        </is>
+      <c r="E39" t="n">
+        <v>14</v>
+      </c>
+      <c r="F39" t="n">
+        <v>31</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
@@ -1726,15 +1588,11 @@
       <c r="D40" t="n">
         <v>19</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E40" t="n">
+        <v>12</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
@@ -1760,15 +1618,11 @@
       <c r="D41" t="n">
         <v>18</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>+12 (+5)</t>
-        </is>
+      <c r="E41" t="n">
+        <v>14</v>
+      </c>
+      <c r="F41" t="n">
+        <v>12</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
@@ -1789,10 +1643,8 @@
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="F42" t="n">
+        <v>7</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
@@ -1814,15 +1666,11 @@
       <c r="D43" t="n">
         <v>16</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E43" t="n">
+        <v>8</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -1844,15 +1692,11 @@
       <c r="D44" t="n">
         <v>26</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
+      <c r="E44" t="n">
+        <v>15</v>
+      </c>
+      <c r="F44" t="n">
+        <v>11</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
@@ -1878,15 +1722,11 @@
       <c r="D45" t="n">
         <v>13</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E45" t="n">
+        <v>9</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1916,15 +1756,11 @@
       <c r="D46" t="n">
         <v>23</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E46" t="n">
+        <v>12</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-1</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
@@ -1950,15 +1786,11 @@
       <c r="D47" t="n">
         <v>23</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>-7,</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>+36 (+26)</t>
-        </is>
+      <c r="E47" t="n">
+        <v>7</v>
+      </c>
+      <c r="F47" t="n">
+        <v>36</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
@@ -1984,15 +1816,11 @@
       <c r="D48" t="n">
         <v>34</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>-37</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
+      <c r="E48" t="n">
+        <v>37</v>
+      </c>
+      <c r="F48" t="n">
+        <v>11</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
@@ -2017,10 +1845,8 @@
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="F49" t="n">
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
@@ -2042,15 +1868,11 @@
       <c r="D50" t="n">
         <v>23</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>+17 (+8)</t>
-        </is>
+      <c r="E50" t="n">
+        <v>12</v>
+      </c>
+      <c r="F50" t="n">
+        <v>17</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
@@ -2076,15 +1898,11 @@
       <c r="D51" t="n">
         <v>23</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>+16 (+6)</t>
-        </is>
+      <c r="E51" t="n">
+        <v>18</v>
+      </c>
+      <c r="F51" t="n">
+        <v>16</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
@@ -2110,15 +1928,11 @@
       <c r="D52" t="n">
         <v>14</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E52" t="n">
+        <v>7</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
@@ -2144,15 +1958,11 @@
       <c r="D53" t="n">
         <v>32</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>+24 (+15)</t>
-        </is>
+      <c r="E53" t="n">
+        <v>5</v>
+      </c>
+      <c r="F53" t="n">
+        <v>24</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
@@ -2179,10 +1989,8 @@
         <v>12</v>
       </c>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="F54" t="n">
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
@@ -2208,15 +2016,11 @@
       <c r="D55" t="n">
         <v>29</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>+45 (-13)</t>
-        </is>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>45</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
@@ -2239,10 +2043,8 @@
         <v>78</v>
       </c>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="F56" t="n">
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
@@ -2264,15 +2066,11 @@
       <c r="D57" t="n">
         <v>10</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>8</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
@@ -2294,15 +2092,11 @@
       <c r="D58" t="n">
         <v>15</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>+16</t>
-        </is>
+      <c r="E58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>16</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
@@ -2328,15 +2122,11 @@
       <c r="D59" t="n">
         <v>15</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E59" t="n">
+        <v>14</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-1</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2362,15 +2152,11 @@
       <c r="D60" t="n">
         <v>14</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>+31 (-27)</t>
-        </is>
+      <c r="E60" t="n">
+        <v>14</v>
+      </c>
+      <c r="F60" t="n">
+        <v>31</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
@@ -2396,15 +2182,11 @@
       <c r="D61" t="n">
         <v>10</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E61" t="n">
+        <v>8</v>
+      </c>
+      <c r="F61" t="n">
+        <v>8</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
@@ -2426,15 +2208,11 @@
       <c r="D62" t="n">
         <v>11</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E62" t="n">
+        <v>9</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
@@ -2456,15 +2234,11 @@
       <c r="D63" t="n">
         <v>24</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>+12 (+3)</t>
-        </is>
+      <c r="E63" t="n">
+        <v>12</v>
+      </c>
+      <c r="F63" t="n">
+        <v>12</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
@@ -2490,15 +2264,11 @@
       <c r="D64" t="n">
         <v>12</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="E64" t="n">
+        <v>15</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-4</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
@@ -2520,15 +2290,11 @@
       <c r="D65" t="n">
         <v>26</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E65" t="n">
+        <v>15</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
@@ -2550,15 +2316,11 @@
       <c r="D66" t="n">
         <v>23</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E66" t="n">
+        <v>13</v>
+      </c>
+      <c r="F66" t="n">
+        <v>6</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2584,15 +2346,11 @@
       <c r="D67" t="n">
         <v>21</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E67" t="n">
+        <v>12</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-1</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
@@ -2630,15 +2388,11 @@
       <c r="D69" t="n">
         <v>24</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>+20 (+11)</t>
-        </is>
+      <c r="E69" t="n">
+        <v>9</v>
+      </c>
+      <c r="F69" t="n">
+        <v>20</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2668,15 +2422,11 @@
       <c r="D70" t="n">
         <v>11</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E70" t="n">
+        <v>4</v>
+      </c>
+      <c r="F70" t="n">
+        <v>7</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
@@ -2698,15 +2448,11 @@
       <c r="D71" t="n">
         <v>23</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>+30 (+20)</t>
-        </is>
+      <c r="E71" t="n">
+        <v>15</v>
+      </c>
+      <c r="F71" t="n">
+        <v>30</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
@@ -2732,15 +2478,11 @@
       <c r="D72" t="n">
         <v>16</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E72" t="n">
+        <v>14</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-3</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
@@ -2762,15 +2504,11 @@
       <c r="D73" t="n">
         <v>16</v>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
+      <c r="E73" t="n">
+        <v>7</v>
+      </c>
+      <c r="F73" t="n">
+        <v>20</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2800,15 +2538,11 @@
       <c r="D74" t="n">
         <v>12</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E74" t="n">
+        <v>14</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-2</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
@@ -2830,15 +2564,11 @@
       <c r="D75" t="n">
         <v>29</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
+      <c r="E75" t="n">
+        <v>14</v>
+      </c>
+      <c r="F75" t="n">
+        <v>14</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
@@ -2864,15 +2594,11 @@
       <c r="D76" t="n">
         <v>15</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E76" t="n">
+        <v>11</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
@@ -2894,15 +2620,11 @@
       <c r="D77" t="n">
         <v>12</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E77" t="n">
+        <v>12</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2932,15 +2654,11 @@
       <c r="D78" t="n">
         <v>10</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E78" t="n">
+        <v>5</v>
+      </c>
+      <c r="F78" t="n">
+        <v>6</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
@@ -2962,15 +2680,11 @@
       <c r="D79" t="n">
         <v>14</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E79" t="n">
+        <v>4</v>
+      </c>
+      <c r="F79" t="n">
+        <v>7</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
@@ -2992,15 +2706,11 @@
       <c r="D80" t="n">
         <v>33</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E80" t="n">
+        <v>4</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
@@ -3022,15 +2732,11 @@
       <c r="D81" t="n">
         <v>17</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E81" t="n">
+        <v>13</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -3056,15 +2762,11 @@
       <c r="D82" t="n">
         <v>26</v>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>-37</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="E82" t="n">
+        <v>37</v>
+      </c>
+      <c r="F82" t="n">
+        <v>15</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
@@ -3090,15 +2792,11 @@
       <c r="D83" t="n">
         <v>37</v>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>+30 (+12)</t>
-        </is>
+      <c r="E83" t="n">
+        <v>8</v>
+      </c>
+      <c r="F83" t="n">
+        <v>30</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
@@ -3120,15 +2818,11 @@
       <c r="D84" t="n">
         <v>13</v>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>5</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
@@ -3150,15 +2844,11 @@
       <c r="D85" t="n">
         <v>20</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="E85" t="n">
+        <v>16</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-5</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
@@ -3184,15 +2874,11 @@
       <c r="D86" t="n">
         <v>28</v>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E86" t="n">
+        <v>12</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-1</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
@@ -3218,15 +2904,11 @@
       <c r="D87" t="n">
         <v>15</v>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>+34 (+24)</t>
-        </is>
+      <c r="E87" t="n">
+        <v>7</v>
+      </c>
+      <c r="F87" t="n">
+        <v>34</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
@@ -3248,15 +2930,11 @@
       <c r="D88" t="n">
         <v>21</v>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>+52 (+21)</t>
-        </is>
+      <c r="E88" t="n">
+        <v>13</v>
+      </c>
+      <c r="F88" t="n">
+        <v>52</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
@@ -3278,15 +2956,11 @@
       <c r="D89" t="n">
         <v>18</v>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E89" t="n">
+        <v>15</v>
+      </c>
+      <c r="F89" t="n">
+        <v>4</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3312,15 +2986,11 @@
       <c r="D90" t="n">
         <v>13</v>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E90" t="n">
+        <v>8</v>
+      </c>
+      <c r="F90" t="n">
+        <v>3</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
@@ -3342,15 +3012,11 @@
       <c r="D91" t="n">
         <v>29</v>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>+68 (+52)</t>
-        </is>
+      <c r="E91" t="n">
+        <v>14</v>
+      </c>
+      <c r="F91" t="n">
+        <v>68</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
@@ -3376,15 +3042,11 @@
       <c r="D92" t="n">
         <v>12</v>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>8</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3414,15 +3076,11 @@
       <c r="D93" t="n">
         <v>16</v>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>+12 (+5)</t>
-        </is>
+      <c r="E93" t="n">
+        <v>13</v>
+      </c>
+      <c r="F93" t="n">
+        <v>12</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3452,15 +3110,11 @@
       <c r="D94" t="n">
         <v>14</v>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="E94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>15</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3490,15 +3144,11 @@
       <c r="D95" t="n">
         <v>19</v>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>+40</t>
-        </is>
+      <c r="E95" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F95" t="n">
+        <v>40</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
@@ -3524,15 +3174,11 @@
       <c r="D96" t="n">
         <v>21</v>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E96" t="n">
+        <v>13</v>
+      </c>
+      <c r="F96" t="n">
+        <v>6</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3558,15 +3204,11 @@
       <c r="D97" t="n">
         <v>14</v>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>+39 (-19)</t>
-        </is>
+      <c r="E97" t="n">
+        <v>9</v>
+      </c>
+      <c r="F97" t="n">
+        <v>39</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
@@ -3592,15 +3234,11 @@
       <c r="D98" t="n">
         <v>19</v>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>+30 (+4)</t>
-        </is>
+      <c r="E98" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F98" t="n">
+        <v>30</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
@@ -3626,15 +3264,11 @@
       <c r="D99" t="n">
         <v>20</v>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>+18 (+8)</t>
-        </is>
+      <c r="E99" t="n">
+        <v>13</v>
+      </c>
+      <c r="F99" t="n">
+        <v>18</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
@@ -3660,15 +3294,11 @@
       <c r="D100" t="n">
         <v>19</v>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>+31 (-27)</t>
-        </is>
+      <c r="E100" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F100" t="n">
+        <v>31</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
@@ -3694,15 +3324,11 @@
       <c r="D101" t="n">
         <v>12</v>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E101" t="n">
+        <v>2</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
@@ -3728,15 +3354,11 @@
       <c r="D102" t="n">
         <v>20</v>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>+3c</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E102" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F102" t="n">
+        <v>8</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3762,15 +3384,11 @@
       <c r="D103" t="n">
         <v>12</v>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>6</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
@@ -3792,15 +3410,11 @@
       <c r="D104" t="n">
         <v>19</v>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>+30 (+4)</t>
-        </is>
+      <c r="E104" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F104" t="n">
+        <v>30</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
@@ -3826,15 +3440,11 @@
       <c r="D105" t="n">
         <v>12</v>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E105" t="n">
+        <v>2</v>
+      </c>
+      <c r="F105" t="n">
+        <v>6</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
@@ -3860,15 +3470,11 @@
       <c r="D106" t="n">
         <v>18</v>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E106" t="n">
+        <v>10</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
@@ -3890,15 +3496,11 @@
       <c r="D107" t="n">
         <v>20</v>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E107" t="n">
+        <v>2</v>
+      </c>
+      <c r="F107" t="n">
+        <v>8</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
@@ -3920,15 +3522,11 @@
       <c r="D108" t="n">
         <v>25</v>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E108" t="n">
+        <v>2</v>
+      </c>
+      <c r="F108" t="n">
+        <v>7</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -3954,15 +3552,11 @@
       <c r="D109" t="n">
         <v>10</v>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E109" t="n">
+        <v>5</v>
+      </c>
+      <c r="F109" t="n">
+        <v>6</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
@@ -3984,15 +3578,11 @@
       <c r="D110" t="n">
         <v>11</v>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E110" t="n">
+        <v>4</v>
+      </c>
+      <c r="F110" t="n">
+        <v>7</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
@@ -4014,15 +3604,11 @@
       <c r="D111" t="n">
         <v>16</v>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="E111" t="n">
+        <v>17</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-6</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
@@ -4044,15 +3630,11 @@
       <c r="D112" t="n">
         <v>29</v>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>+14 (-3)</t>
-        </is>
+      <c r="E112" t="n">
+        <v>14</v>
+      </c>
+      <c r="F112" t="n">
+        <v>14</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
@@ -4078,15 +3660,11 @@
       <c r="D113" t="n">
         <v>12</v>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E113" t="n">
+        <v>14</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-2</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
@@ -4108,15 +3686,11 @@
       <c r="D114" t="n">
         <v>29</v>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
+      <c r="E114" t="n">
+        <v>14</v>
+      </c>
+      <c r="F114" t="n">
+        <v>14</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
@@ -4142,15 +3716,11 @@
       <c r="D115" t="n">
         <v>46</v>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>+17 (+7)</t>
-        </is>
+      <c r="E115" t="n">
+        <v>4</v>
+      </c>
+      <c r="F115" t="n">
+        <v>17</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
@@ -4172,15 +3742,11 @@
       <c r="D116" t="n">
         <v>14</v>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E116" t="n">
+        <v>6</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -4206,15 +3772,11 @@
       <c r="D117" t="n">
         <v>22</v>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E117" t="n">
+        <v>4</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
@@ -4240,15 +3802,11 @@
       <c r="D118" t="n">
         <v>28</v>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
+      <c r="E118" t="n">
+        <v>13</v>
+      </c>
+      <c r="F118" t="n">
+        <v>11</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
@@ -4274,15 +3832,11 @@
       <c r="D119" t="n">
         <v>16</v>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>+37 (-21)</t>
-        </is>
+      <c r="E119" t="n">
+        <v>14</v>
+      </c>
+      <c r="F119" t="n">
+        <v>37</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
@@ -4308,15 +3862,11 @@
       <c r="D120" t="n">
         <v>31</v>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>+30 (+4)</t>
-        </is>
+      <c r="E120" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F120" t="n">
+        <v>30</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
@@ -4342,15 +3892,11 @@
       <c r="D121" t="n">
         <v>20</v>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>+18 (+8)</t>
-        </is>
+      <c r="E121" t="n">
+        <v>13</v>
+      </c>
+      <c r="F121" t="n">
+        <v>18</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
@@ -4376,15 +3922,11 @@
       <c r="D122" t="n">
         <v>12</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>+55 (+28)</t>
-        </is>
+      <c r="E122" t="n">
+        <v>3</v>
+      </c>
+      <c r="F122" t="n">
+        <v>55</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
@@ -4410,15 +3952,11 @@
       <c r="D123" t="n">
         <v>20</v>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>+18 (+1)</t>
-        </is>
+      <c r="E123" t="n">
+        <v>11</v>
+      </c>
+      <c r="F123" t="n">
+        <v>18</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
@@ -4444,15 +3982,11 @@
       <c r="D124" t="n">
         <v>20</v>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>+35 (-23)</t>
-        </is>
+      <c r="E124" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F124" t="n">
+        <v>35</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
@@ -4478,15 +4012,11 @@
       <c r="D125" t="n">
         <v>14</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>+11g</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E125" t="n">
+        <v>-11</v>
+      </c>
+      <c r="F125" t="n">
+        <v>5</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
@@ -4528,15 +4058,11 @@
       <c r="D127" t="n">
         <v>12</v>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E127" t="n">
+        <v>3</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
@@ -4562,15 +4088,11 @@
       <c r="D128" t="n">
         <v>20</v>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E128" t="n">
+        <v>15</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
@@ -4596,15 +4118,11 @@
       <c r="D129" t="n">
         <v>12</v>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E129" t="n">
+        <v>3</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
@@ -4630,15 +4148,11 @@
       <c r="D130" t="n">
         <v>17</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E130" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F130" t="n">
+        <v>7</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
@@ -4660,15 +4174,11 @@
       <c r="D131" t="n">
         <v>22</v>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>+16 (+6)</t>
-        </is>
+      <c r="E131" t="n">
+        <v>16</v>
+      </c>
+      <c r="F131" t="n">
+        <v>16</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
@@ -4690,15 +4200,11 @@
       <c r="D132" t="n">
         <v>18</v>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>+16 (+6)</t>
-        </is>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>16</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
@@ -4724,15 +4230,11 @@
       <c r="D133" t="n">
         <v>18</v>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E133" t="n">
+        <v>13</v>
+      </c>
+      <c r="F133" t="n">
+        <v>7</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -4758,15 +4260,11 @@
       <c r="D134" t="n">
         <v>15</v>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>+63 (+43)</t>
-        </is>
+      <c r="E134" t="n">
+        <v>12</v>
+      </c>
+      <c r="F134" t="n">
+        <v>63</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
@@ -4792,15 +4290,11 @@
       <c r="D135" t="n">
         <v>15</v>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>+19 (+9)</t>
-        </is>
+      <c r="E135" t="n">
+        <v>13</v>
+      </c>
+      <c r="F135" t="n">
+        <v>19</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -4826,15 +4320,11 @@
       <c r="D136" t="n">
         <v>12</v>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>+13 (-4)</t>
-        </is>
+      <c r="E136" t="n">
+        <v>7</v>
+      </c>
+      <c r="F136" t="n">
+        <v>13</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
@@ -4860,15 +4350,11 @@
       <c r="D137" t="n">
         <v>15</v>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E137" t="n">
+        <v>12</v>
+      </c>
+      <c r="F137" t="n">
+        <v>9</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
@@ -4906,15 +4392,11 @@
       <c r="D139" t="n">
         <v>15</v>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>+31 (+21)</t>
-        </is>
+      <c r="E139" t="n">
+        <v>12</v>
+      </c>
+      <c r="F139" t="n">
+        <v>31</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
@@ -4936,15 +4418,11 @@
       <c r="D140" t="n">
         <v>12</v>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E140" t="n">
+        <v>5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>6</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
@@ -4966,15 +4444,11 @@
       <c r="D141" t="n">
         <v>12</v>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E141" t="n">
+        <v>6</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
@@ -5000,15 +4474,11 @@
       <c r="D142" t="n">
         <v>12</v>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="E142" t="n">
+        <v>6</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-6</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
@@ -5034,15 +4504,11 @@
       <c r="D143" t="n">
         <v>19</v>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E143" t="n">
+        <v>13</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-1</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
@@ -5068,15 +4534,11 @@
       <c r="D144" t="n">
         <v>18</v>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>+42 (-16)</t>
-        </is>
+      <c r="E144" t="n">
+        <v>8</v>
+      </c>
+      <c r="F144" t="n">
+        <v>42</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
@@ -5102,15 +4564,11 @@
       <c r="D145" t="n">
         <v>29</v>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>-24</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E145" t="n">
+        <v>24</v>
+      </c>
+      <c r="F145" t="n">
+        <v>5</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
@@ -5132,15 +4590,11 @@
       <c r="D146" t="n">
         <v>15</v>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>+33 (+23)</t>
-        </is>
+      <c r="E146" t="n">
+        <v>13</v>
+      </c>
+      <c r="F146" t="n">
+        <v>33</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
@@ -5162,15 +4616,11 @@
       <c r="D147" t="n">
         <v>18</v>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>+28 (+18)</t>
-        </is>
+      <c r="E147" t="n">
+        <v>17</v>
+      </c>
+      <c r="F147" t="n">
+        <v>28</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
@@ -5192,15 +4642,11 @@
       <c r="D148" t="n">
         <v>19</v>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>+78 (+62)</t>
-        </is>
+      <c r="E148" t="n">
+        <v>14</v>
+      </c>
+      <c r="F148" t="n">
+        <v>78</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
@@ -5226,15 +4672,11 @@
       <c r="D149" t="n">
         <v>19</v>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>+30 (+20)</t>
-        </is>
+      <c r="E149" t="n">
+        <v>15</v>
+      </c>
+      <c r="F149" t="n">
+        <v>30</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
@@ -5272,15 +4714,11 @@
       <c r="D151" t="n">
         <v>13</v>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E151" t="n">
+        <v>7</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-1</v>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
@@ -5302,15 +4740,11 @@
       <c r="D152" t="n">
         <v>16</v>
       </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>+40 (-18)</t>
-        </is>
+      <c r="E152" t="n">
+        <v>9</v>
+      </c>
+      <c r="F152" t="n">
+        <v>40</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr">
@@ -5336,15 +4770,11 @@
       <c r="D153" t="n">
         <v>15</v>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>+31 (+21)</t>
-        </is>
+      <c r="E153" t="n">
+        <v>18</v>
+      </c>
+      <c r="F153" t="n">
+        <v>31</v>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
@@ -5366,15 +4796,11 @@
       <c r="D154" t="n">
         <v>16</v>
       </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>+17g</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>+19</t>
-        </is>
+      <c r="E154" t="n">
+        <v>-17</v>
+      </c>
+      <c r="F154" t="n">
+        <v>19</v>
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
@@ -5396,15 +4822,11 @@
       <c r="D155" t="n">
         <v>14</v>
       </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>-21</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>+0 (-17)</t>
-        </is>
+      <c r="E155" t="n">
+        <v>21</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
@@ -5430,15 +4852,11 @@
       <c r="D156" t="n">
         <v>11</v>
       </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E156" t="n">
+        <v>4</v>
+      </c>
+      <c r="F156" t="n">
+        <v>7</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
@@ -5460,512 +4878,14 @@
       <c r="D157" t="n">
         <v>27</v>
       </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>+68 (+52)</t>
-        </is>
+      <c r="E157" t="n">
+        <v>14</v>
+      </c>
+      <c r="F157" t="n">
+        <v>68</v>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr">
-        <is>
-          <t>Tornado / Combos from 1st hit CH</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>uf+1+2,2,1,1+2</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="C158" t="n">
-        <v>40</v>
-      </c>
-      <c r="D158" t="n">
-        <v>12</v>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>Throw break 1+2 / Floor Break</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>uf+1,3</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>H,L</t>
-        </is>
-      </c>
-      <c r="C159" t="n">
-        <v>1010</v>
-      </c>
-      <c r="D159" t="n">
-        <v>19</v>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>Combos from 1st hit</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>uf+3</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C160" t="n">
-        <v>20</v>
-      </c>
-      <c r="D160" t="n">
-        <v>18</v>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>+42 (-16)</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>Heat Engager / Balcony Break</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>uf+3+4</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C161" t="n">
-        <v>27</v>
-      </c>
-      <c r="D161" t="n">
-        <v>29</v>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>-24</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>uf+4</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C162" t="n">
-        <v>14</v>
-      </c>
-      <c r="D162" t="n">
-        <v>15</v>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>+33 (+23)</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>UF+4</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C163" t="n">
-        <v>23</v>
-      </c>
-      <c r="D163" t="n">
-        <v>18</v>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>+28 (+18)</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>UF+4,3</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C164" t="n">
-        <v>2316</v>
-      </c>
-      <c r="D164" t="n">
-        <v>19</v>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>+78 (+62)</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>Combos from 1st hit / Tornado / 2nd hit Instant Tornado</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>uf,n,4</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C165" t="n">
-        <v>20</v>
-      </c>
-      <c r="D165" t="n">
-        <v>19</v>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>+30 (+20)</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>(While down, facing up) 1+2+3+4</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr"/>
-      <c r="C166" t="n">
-        <v>0</v>
-      </c>
-      <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>ws1</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C167" t="n">
-        <v>10</v>
-      </c>
-      <c r="D167" t="n">
-        <v>13</v>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>ws1,2</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>M,H</t>
-        </is>
-      </c>
-      <c r="C168" t="n">
-        <v>35</v>
-      </c>
-      <c r="D168" t="n">
-        <v>16</v>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>+40 (-18)</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>Balcony Break / Delayable</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>ws2</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C169" t="n">
-        <v>20</v>
-      </c>
-      <c r="D169" t="n">
-        <v>15</v>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>+31 (+21)</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>ws3</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C170" t="n">
-        <v>16</v>
-      </c>
-      <c r="D170" t="n">
-        <v>16</v>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>+17g</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>+19</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>ws3+4</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C171" t="n">
-        <v>30</v>
-      </c>
-      <c r="D171" t="n">
-        <v>14</v>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>-21</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>+0 (-17)</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>Balcony Break</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>ws4</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C172" t="n">
-        <v>14</v>
-      </c>
-      <c r="D172" t="n">
-        <v>11</v>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>ws4,3</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C173" t="n">
-        <v>37</v>
-      </c>
-      <c r="D173" t="n">
-        <v>27</v>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>+68 (+52)</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr">
         <is>
           <t>Tornado / Combos from 1st hit CH</t>
         </is>

--- a/data/marshall-law-tekken-8-frame-data.xlsx
+++ b/data/marshall-law-tekken-8-frame-data.xlsx
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
@@ -519,7 +519,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F3" t="n">
         <v>-6</v>
@@ -549,7 +549,7 @@
         <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F4" t="n">
         <v>41</v>
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F5" t="n">
         <v>6</v>
@@ -605,7 +605,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F6" t="n">
         <v>12</v>
@@ -639,7 +639,7 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -673,7 +673,7 @@
         <v>20</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F8" t="n">
         <v>4</v>
@@ -707,7 +707,7 @@
         <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F9" t="n">
         <v>5</v>
@@ -737,7 +737,7 @@
         <v>20</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F10" t="n">
         <v>4</v>
@@ -771,7 +771,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F11" t="n">
         <v>13</v>
@@ -817,7 +817,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F13" t="n">
         <v>6</v>
@@ -859,7 +859,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>50</v>
@@ -889,7 +889,7 @@
         <v>19</v>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F16" t="n">
         <v>-1</v>
@@ -919,7 +919,7 @@
         <v>15</v>
       </c>
       <c r="E17" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F17" t="n">
         <v>31</v>
@@ -945,7 +945,7 @@
         <v>12</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>20</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F20" t="n">
         <v>4</v>
@@ -1031,7 +1031,7 @@
         <v>19</v>
       </c>
       <c r="E21" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
@@ -1061,7 +1061,7 @@
         <v>13</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F22" t="n">
         <v>4</v>
@@ -1095,7 +1095,7 @@
         <v>16</v>
       </c>
       <c r="E23" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
@@ -1169,7 +1169,7 @@
         <v>17</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F26" t="n">
         <v>7</v>
@@ -1199,7 +1199,7 @@
         <v>23</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F27" t="n">
         <v>3</v>
@@ -1229,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F28" t="n">
         <v>20</v>
@@ -1263,7 +1263,7 @@
         <v>12</v>
       </c>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F29" t="n">
         <v>2</v>
@@ -1289,7 +1289,7 @@
         <v>27</v>
       </c>
       <c r="E30" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F30" t="n">
         <v>-3</v>
@@ -1323,7 +1323,7 @@
         <v>14</v>
       </c>
       <c r="E31" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
@@ -1349,7 +1349,7 @@
         <v>22</v>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F32" t="n">
         <v>19</v>
@@ -1379,7 +1379,7 @@
         <v>30</v>
       </c>
       <c r="E33" t="n">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="F33" t="n">
         <v>31</v>
@@ -1409,7 +1409,7 @@
         <v>13</v>
       </c>
       <c r="E34" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F34" t="n">
         <v>7</v>
@@ -1435,7 +1435,7 @@
         <v>18</v>
       </c>
       <c r="E35" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -1469,7 +1469,7 @@
         <v>20</v>
       </c>
       <c r="E36" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F36" t="n">
         <v>-1</v>
@@ -1503,7 +1503,7 @@
         <v>33</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F37" t="n">
         <v>30</v>
@@ -1533,7 +1533,7 @@
         <v>14</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F38" t="n">
         <v>2</v>
@@ -1559,7 +1559,7 @@
         <v>20</v>
       </c>
       <c r="E39" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F39" t="n">
         <v>31</v>
@@ -1589,7 +1589,7 @@
         <v>19</v>
       </c>
       <c r="E40" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F40" t="n">
         <v>2</v>
@@ -1619,7 +1619,7 @@
         <v>18</v>
       </c>
       <c r="E41" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F41" t="n">
         <v>12</v>
@@ -1667,7 +1667,7 @@
         <v>16</v>
       </c>
       <c r="E43" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F43" t="n">
         <v>4</v>
@@ -1693,7 +1693,7 @@
         <v>26</v>
       </c>
       <c r="E44" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F44" t="n">
         <v>11</v>
@@ -1723,7 +1723,7 @@
         <v>13</v>
       </c>
       <c r="E45" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F45" t="n">
         <v>4</v>
@@ -1757,7 +1757,7 @@
         <v>23</v>
       </c>
       <c r="E46" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F46" t="n">
         <v>-1</v>
@@ -1787,7 +1787,7 @@
         <v>23</v>
       </c>
       <c r="E47" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F47" t="n">
         <v>36</v>
@@ -1817,7 +1817,7 @@
         <v>34</v>
       </c>
       <c r="E48" t="n">
-        <v>37</v>
+        <v>-37</v>
       </c>
       <c r="F48" t="n">
         <v>11</v>
@@ -1869,7 +1869,7 @@
         <v>23</v>
       </c>
       <c r="E50" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F50" t="n">
         <v>17</v>
@@ -1899,7 +1899,7 @@
         <v>23</v>
       </c>
       <c r="E51" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F51" t="n">
         <v>16</v>
@@ -1929,7 +1929,7 @@
         <v>14</v>
       </c>
       <c r="E52" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F52" t="n">
         <v>3</v>
@@ -1959,7 +1959,7 @@
         <v>32</v>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F53" t="n">
         <v>24</v>
@@ -2017,7 +2017,7 @@
         <v>29</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F55" t="n">
         <v>45</v>
@@ -2067,7 +2067,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v>8</v>
@@ -2093,7 +2093,7 @@
         <v>15</v>
       </c>
       <c r="E58" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
         <v>16</v>
@@ -2123,7 +2123,7 @@
         <v>15</v>
       </c>
       <c r="E59" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F59" t="n">
         <v>-1</v>
@@ -2153,7 +2153,7 @@
         <v>14</v>
       </c>
       <c r="E60" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F60" t="n">
         <v>31</v>
@@ -2183,7 +2183,7 @@
         <v>10</v>
       </c>
       <c r="E61" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F61" t="n">
         <v>8</v>
@@ -2209,7 +2209,7 @@
         <v>11</v>
       </c>
       <c r="E62" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F62" t="n">
         <v>2</v>
@@ -2235,7 +2235,7 @@
         <v>24</v>
       </c>
       <c r="E63" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F63" t="n">
         <v>12</v>
@@ -2265,7 +2265,7 @@
         <v>12</v>
       </c>
       <c r="E64" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F64" t="n">
         <v>-4</v>
@@ -2291,7 +2291,7 @@
         <v>26</v>
       </c>
       <c r="E65" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>23</v>
       </c>
       <c r="E66" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F66" t="n">
         <v>6</v>
@@ -2347,7 +2347,7 @@
         <v>21</v>
       </c>
       <c r="E67" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F67" t="n">
         <v>-1</v>
@@ -2389,7 +2389,7 @@
         <v>24</v>
       </c>
       <c r="E69" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F69" t="n">
         <v>20</v>
@@ -2423,7 +2423,7 @@
         <v>11</v>
       </c>
       <c r="E70" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F70" t="n">
         <v>7</v>
@@ -2449,7 +2449,7 @@
         <v>23</v>
       </c>
       <c r="E71" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F71" t="n">
         <v>30</v>
@@ -2479,7 +2479,7 @@
         <v>16</v>
       </c>
       <c r="E72" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F72" t="n">
         <v>-3</v>
@@ -2505,7 +2505,7 @@
         <v>16</v>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F73" t="n">
         <v>20</v>
@@ -2539,7 +2539,7 @@
         <v>12</v>
       </c>
       <c r="E74" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F74" t="n">
         <v>-2</v>
@@ -2565,7 +2565,7 @@
         <v>29</v>
       </c>
       <c r="E75" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F75" t="n">
         <v>14</v>
@@ -2595,7 +2595,7 @@
         <v>15</v>
       </c>
       <c r="E76" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>12</v>
       </c>
       <c r="E77" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F78" t="n">
         <v>6</v>
@@ -2681,7 +2681,7 @@
         <v>14</v>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F79" t="n">
         <v>7</v>
@@ -2707,7 +2707,7 @@
         <v>33</v>
       </c>
       <c r="E80" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F80" t="n">
         <v>1</v>
@@ -2733,7 +2733,7 @@
         <v>17</v>
       </c>
       <c r="E81" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F81" t="n">
         <v>3</v>
@@ -2763,7 +2763,7 @@
         <v>26</v>
       </c>
       <c r="E82" t="n">
-        <v>37</v>
+        <v>-37</v>
       </c>
       <c r="F82" t="n">
         <v>15</v>
@@ -2793,7 +2793,7 @@
         <v>37</v>
       </c>
       <c r="E83" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F83" t="n">
         <v>30</v>
@@ -2819,7 +2819,7 @@
         <v>13</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F84" t="n">
         <v>5</v>
@@ -2845,7 +2845,7 @@
         <v>20</v>
       </c>
       <c r="E85" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F85" t="n">
         <v>-5</v>
@@ -2875,7 +2875,7 @@
         <v>28</v>
       </c>
       <c r="E86" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F86" t="n">
         <v>-1</v>
@@ -2905,7 +2905,7 @@
         <v>15</v>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F87" t="n">
         <v>34</v>
@@ -2931,7 +2931,7 @@
         <v>21</v>
       </c>
       <c r="E88" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F88" t="n">
         <v>52</v>
@@ -2957,7 +2957,7 @@
         <v>18</v>
       </c>
       <c r="E89" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F89" t="n">
         <v>4</v>
@@ -2987,7 +2987,7 @@
         <v>13</v>
       </c>
       <c r="E90" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F90" t="n">
         <v>3</v>
@@ -3013,7 +3013,7 @@
         <v>29</v>
       </c>
       <c r="E91" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F91" t="n">
         <v>68</v>
@@ -3077,7 +3077,7 @@
         <v>16</v>
       </c>
       <c r="E93" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F93" t="n">
         <v>12</v>
@@ -3111,7 +3111,7 @@
         <v>14</v>
       </c>
       <c r="E94" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
         <v>15</v>
@@ -3145,7 +3145,7 @@
         <v>19</v>
       </c>
       <c r="E95" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F95" t="n">
         <v>40</v>
@@ -3175,7 +3175,7 @@
         <v>21</v>
       </c>
       <c r="E96" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F96" t="n">
         <v>6</v>
@@ -3205,7 +3205,7 @@
         <v>14</v>
       </c>
       <c r="E97" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F97" t="n">
         <v>39</v>
@@ -3235,7 +3235,7 @@
         <v>19</v>
       </c>
       <c r="E98" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F98" t="n">
         <v>30</v>
@@ -3265,7 +3265,7 @@
         <v>20</v>
       </c>
       <c r="E99" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F99" t="n">
         <v>18</v>
@@ -3295,7 +3295,7 @@
         <v>19</v>
       </c>
       <c r="E100" t="n">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="F100" t="n">
         <v>31</v>
@@ -3325,7 +3325,7 @@
         <v>12</v>
       </c>
       <c r="E101" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -3355,7 +3355,7 @@
         <v>20</v>
       </c>
       <c r="E102" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F102" t="n">
         <v>8</v>
@@ -3411,7 +3411,7 @@
         <v>19</v>
       </c>
       <c r="E104" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F104" t="n">
         <v>30</v>
@@ -3441,7 +3441,7 @@
         <v>12</v>
       </c>
       <c r="E105" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F105" t="n">
         <v>6</v>
@@ -3471,7 +3471,7 @@
         <v>18</v>
       </c>
       <c r="E106" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F106" t="n">
         <v>1</v>
@@ -3497,7 +3497,7 @@
         <v>20</v>
       </c>
       <c r="E107" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F107" t="n">
         <v>8</v>
@@ -3523,7 +3523,7 @@
         <v>25</v>
       </c>
       <c r="E108" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F108" t="n">
         <v>7</v>
@@ -3553,7 +3553,7 @@
         <v>10</v>
       </c>
       <c r="E109" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F109" t="n">
         <v>6</v>
@@ -3579,7 +3579,7 @@
         <v>11</v>
       </c>
       <c r="E110" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F110" t="n">
         <v>7</v>
@@ -3605,7 +3605,7 @@
         <v>16</v>
       </c>
       <c r="E111" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F111" t="n">
         <v>-6</v>
@@ -3631,7 +3631,7 @@
         <v>29</v>
       </c>
       <c r="E112" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F112" t="n">
         <v>14</v>
@@ -3661,7 +3661,7 @@
         <v>12</v>
       </c>
       <c r="E113" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F113" t="n">
         <v>-2</v>
@@ -3687,7 +3687,7 @@
         <v>29</v>
       </c>
       <c r="E114" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F114" t="n">
         <v>14</v>
@@ -3717,7 +3717,7 @@
         <v>46</v>
       </c>
       <c r="E115" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F115" t="n">
         <v>17</v>
@@ -3743,7 +3743,7 @@
         <v>14</v>
       </c>
       <c r="E116" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F116" t="n">
         <v>2</v>
@@ -3773,7 +3773,7 @@
         <v>22</v>
       </c>
       <c r="E117" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F117" t="n">
         <v>2</v>
@@ -3803,7 +3803,7 @@
         <v>28</v>
       </c>
       <c r="E118" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F118" t="n">
         <v>11</v>
@@ -3833,7 +3833,7 @@
         <v>16</v>
       </c>
       <c r="E119" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F119" t="n">
         <v>37</v>
@@ -3863,7 +3863,7 @@
         <v>31</v>
       </c>
       <c r="E120" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F120" t="n">
         <v>30</v>
@@ -3893,7 +3893,7 @@
         <v>20</v>
       </c>
       <c r="E121" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F121" t="n">
         <v>18</v>
@@ -3923,7 +3923,7 @@
         <v>12</v>
       </c>
       <c r="E122" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F122" t="n">
         <v>55</v>
@@ -3953,7 +3953,7 @@
         <v>20</v>
       </c>
       <c r="E123" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F123" t="n">
         <v>18</v>
@@ -3983,7 +3983,7 @@
         <v>20</v>
       </c>
       <c r="E124" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="F124" t="n">
         <v>35</v>
@@ -4013,7 +4013,7 @@
         <v>14</v>
       </c>
       <c r="E125" t="n">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="F125" t="n">
         <v>5</v>
@@ -4059,7 +4059,7 @@
         <v>12</v>
       </c>
       <c r="E127" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -4089,7 +4089,7 @@
         <v>20</v>
       </c>
       <c r="E128" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>12</v>
       </c>
       <c r="E129" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>17</v>
       </c>
       <c r="E130" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F130" t="n">
         <v>7</v>
@@ -4175,7 +4175,7 @@
         <v>22</v>
       </c>
       <c r="E131" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F131" t="n">
         <v>16</v>
@@ -4231,7 +4231,7 @@
         <v>18</v>
       </c>
       <c r="E133" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F133" t="n">
         <v>7</v>
@@ -4261,7 +4261,7 @@
         <v>15</v>
       </c>
       <c r="E134" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F134" t="n">
         <v>63</v>
@@ -4291,7 +4291,7 @@
         <v>15</v>
       </c>
       <c r="E135" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F135" t="n">
         <v>19</v>
@@ -4321,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="E136" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F136" t="n">
         <v>13</v>
@@ -4351,7 +4351,7 @@
         <v>15</v>
       </c>
       <c r="E137" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F137" t="n">
         <v>9</v>
@@ -4393,7 +4393,7 @@
         <v>15</v>
       </c>
       <c r="E139" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F139" t="n">
         <v>31</v>
@@ -4419,7 +4419,7 @@
         <v>12</v>
       </c>
       <c r="E140" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F140" t="n">
         <v>6</v>
@@ -4445,7 +4445,7 @@
         <v>12</v>
       </c>
       <c r="E141" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F141" t="n">
         <v>3</v>
@@ -4475,7 +4475,7 @@
         <v>12</v>
       </c>
       <c r="E142" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F142" t="n">
         <v>-6</v>
@@ -4505,7 +4505,7 @@
         <v>19</v>
       </c>
       <c r="E143" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F143" t="n">
         <v>-1</v>
@@ -4535,7 +4535,7 @@
         <v>18</v>
       </c>
       <c r="E144" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F144" t="n">
         <v>42</v>
@@ -4565,7 +4565,7 @@
         <v>29</v>
       </c>
       <c r="E145" t="n">
-        <v>24</v>
+        <v>-24</v>
       </c>
       <c r="F145" t="n">
         <v>5</v>
@@ -4591,7 +4591,7 @@
         <v>15</v>
       </c>
       <c r="E146" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F146" t="n">
         <v>33</v>
@@ -4617,7 +4617,7 @@
         <v>18</v>
       </c>
       <c r="E147" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F147" t="n">
         <v>28</v>
@@ -4643,7 +4643,7 @@
         <v>19</v>
       </c>
       <c r="E148" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F148" t="n">
         <v>78</v>
@@ -4673,7 +4673,7 @@
         <v>19</v>
       </c>
       <c r="E149" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F149" t="n">
         <v>30</v>
@@ -4715,7 +4715,7 @@
         <v>13</v>
       </c>
       <c r="E151" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F151" t="n">
         <v>-1</v>
@@ -4741,7 +4741,7 @@
         <v>16</v>
       </c>
       <c r="E152" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F152" t="n">
         <v>40</v>
@@ -4771,7 +4771,7 @@
         <v>15</v>
       </c>
       <c r="E153" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F153" t="n">
         <v>31</v>
@@ -4797,7 +4797,7 @@
         <v>16</v>
       </c>
       <c r="E154" t="n">
-        <v>-17</v>
+        <v>17</v>
       </c>
       <c r="F154" t="n">
         <v>19</v>
@@ -4823,7 +4823,7 @@
         <v>14</v>
       </c>
       <c r="E155" t="n">
-        <v>21</v>
+        <v>-21</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -4853,7 +4853,7 @@
         <v>11</v>
       </c>
       <c r="E156" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F156" t="n">
         <v>7</v>
@@ -4879,7 +4879,7 @@
         <v>27</v>
       </c>
       <c r="E157" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F157" t="n">
         <v>68</v>
